--- a/matthias_SA/volllast/Volllastkennlinie_Fiat_1300.xlsx
+++ b/matthias_SA/volllast/Volllastkennlinie_Fiat_1300.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernerfachhochschule-my.sharepoint.com/personal/ramem2_bfh_ch/Documents/Desktop/SA Schleppmomente/Vollastkennlinien/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{A83417AF-048B-4FAB-94CF-0794BC8EA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DA3B599-78DC-45B0-9543-3EFBDF5191F8}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{A83417AF-048B-4FAB-94CF-0794BC8EA1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFFDFA92-ECE3-4253-A411-B3D6448139F0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F25C2C7A-52DB-4C1E-887E-D5DFA9965687}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{F25C2C7A-52DB-4C1E-887E-D5DFA9965687}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="B4:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -425,7 +425,7 @@
       <c r="B6" s="1">
         <v>2296.6999999999998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -433,320 +433,320 @@
       <c r="B7" s="1">
         <v>2273.54</v>
       </c>
-      <c r="C7">
-        <v>194</v>
+      <c r="C7" s="1">
+        <v>50.336920055111143</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>2258.1</v>
       </c>
-      <c r="C8">
-        <v>263</v>
+      <c r="C8" s="1">
+        <v>68.240257600485734</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>2231.08</v>
       </c>
-      <c r="C9">
-        <v>397</v>
+      <c r="C9" s="1">
+        <v>103.00905805092333</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>2215.64</v>
       </c>
-      <c r="C10">
-        <v>506</v>
+      <c r="C10" s="1">
+        <v>131.29114199941361</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>2200.1999999999998</v>
       </c>
-      <c r="C11">
-        <v>599</v>
+      <c r="C11" s="1">
+        <v>155.42172738665761</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>2192.48</v>
       </c>
-      <c r="C12">
-        <v>648</v>
+      <c r="C12" s="1">
+        <v>168.13569173047435</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>2180.9</v>
       </c>
-      <c r="C13">
-        <v>753</v>
+      <c r="C13" s="1">
+        <v>195.37990103865306</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>2169.3199999999997</v>
       </c>
-      <c r="C14">
-        <v>785</v>
+      <c r="C14" s="1">
+        <v>203.6828981611456</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>2165.46</v>
       </c>
-      <c r="C15">
-        <v>847</v>
+      <c r="C15" s="1">
+        <v>219.76995508597494</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>2153.88</v>
       </c>
-      <c r="C16">
-        <v>889</v>
+      <c r="C16" s="1">
+        <v>230.66763880924643</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>2146.16</v>
       </c>
-      <c r="C17">
-        <v>983</v>
+      <c r="C17" s="1">
+        <v>255.05769285656834</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>2138.44</v>
       </c>
-      <c r="C18">
-        <v>1022</v>
+      <c r="C18" s="1">
+        <v>265.17697059960614</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>2119.14</v>
       </c>
-      <c r="C19">
-        <v>1085</v>
+      <c r="C19" s="1">
+        <v>281.52349618451336</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>2111.42</v>
       </c>
-      <c r="C20">
-        <v>1127</v>
+      <c r="C20" s="1">
+        <v>292.42117990778485</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>2095.98</v>
       </c>
-      <c r="C21">
-        <v>1210</v>
+      <c r="C21" s="1">
+        <v>313.9570786942499</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>2072.8199999999997</v>
       </c>
-      <c r="C22">
-        <v>1313</v>
+      <c r="C22" s="1">
+        <v>340.68235068227284</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>2061.2399999999998</v>
       </c>
-      <c r="C23">
-        <v>1394</v>
+      <c r="C23" s="1">
+        <v>361.69931214858212</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>2041.9399999999998</v>
       </c>
-      <c r="C24">
-        <v>1482</v>
+      <c r="C24" s="1">
+        <v>384.53255423543669</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>2026.5</v>
       </c>
-      <c r="C25">
-        <v>1531</v>
+      <c r="C25" s="1">
+        <v>397.2465185792534</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>2018.78</v>
       </c>
-      <c r="C26">
-        <v>1562</v>
+      <c r="C26" s="1">
+        <v>405.29004704166806</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>1999.48</v>
       </c>
-      <c r="C27">
-        <v>1602</v>
+      <c r="C27" s="1">
+        <v>415.66879344478377</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>1987.8999999999999</v>
       </c>
-      <c r="C28">
-        <v>1621</v>
+      <c r="C28" s="1">
+        <v>420.59869798626374</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>1960.8799999999999</v>
       </c>
-      <c r="C29">
-        <v>1651</v>
+      <c r="C29" s="1">
+        <v>428.38275778860054</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>1941.58</v>
       </c>
-      <c r="C30">
-        <v>1670</v>
+      <c r="C30" s="1">
+        <v>433.31266233008046</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>1922.28</v>
       </c>
-      <c r="C31">
-        <v>1679</v>
+      <c r="C31" s="1">
+        <v>435.64788027078151</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <v>1899.12</v>
       </c>
-      <c r="C32">
-        <v>1688</v>
+      <c r="C32" s="1">
+        <v>437.98309821148257</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <v>1879.82</v>
       </c>
-      <c r="C33">
-        <v>1696</v>
+      <c r="C33" s="1">
+        <v>440.05884749210566</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <v>1860.52</v>
       </c>
-      <c r="C34">
-        <v>1735</v>
+      <c r="C34" s="1">
+        <v>450.17812523514351</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>1821.9199999999998</v>
       </c>
-      <c r="C35">
-        <v>1755</v>
+      <c r="C35" s="1">
+        <v>455.36749843670134</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <v>1767.8799999999999</v>
       </c>
-      <c r="C36">
-        <v>1763</v>
+      <c r="C36" s="1">
+        <v>457.44324771732448</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="1">
         <v>1702.26</v>
       </c>
-      <c r="C37">
-        <v>1777</v>
+      <c r="C37" s="1">
+        <v>461.075808958415</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="1">
         <v>1636.6399999999999</v>
       </c>
-      <c r="C38">
-        <v>1786</v>
+      <c r="C38" s="1">
+        <v>463.411026899116</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="1">
         <v>1567.1599999999999</v>
       </c>
-      <c r="C39">
-        <v>1795</v>
+      <c r="C39" s="1">
+        <v>465.74624483981705</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <v>1493.82</v>
       </c>
-      <c r="C40">
-        <v>1801</v>
+      <c r="C40" s="1">
+        <v>467.30305680028442</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <v>1416.62</v>
       </c>
-      <c r="C41">
-        <v>1807</v>
+      <c r="C41" s="1">
+        <v>468.85986876075174</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <v>1320.12</v>
       </c>
-      <c r="C42">
-        <v>1807</v>
+      <c r="C42" s="1">
+        <v>468.85986876075174</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <v>1254.5</v>
       </c>
-      <c r="C43">
-        <v>1807</v>
+      <c r="C43" s="1">
+        <v>468.85986876075174</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <v>1173.44</v>
       </c>
-      <c r="C44">
-        <v>1803</v>
+      <c r="C44" s="1">
+        <v>467.82199412044019</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
         <v>1100.0999999999999</v>
       </c>
-      <c r="C45">
-        <v>1783</v>
+      <c r="C45" s="1">
+        <v>462.63262091888231</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
         <v>1080.8</v>
       </c>
-      <c r="C46">
-        <v>1750</v>
+      <c r="C46" s="1">
+        <v>454.07015513631188</v>
       </c>
     </row>
   </sheetData>
